--- a/citycar/citycar.xlsx
+++ b/citycar/citycar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\simutrans\simutrans-pak128.japan-ex-addons\citycar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D7946-9339-4AAA-A122-357DF85B01A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5576AB-9581-47DD-A29E-D3540E966093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>addon</t>
   </si>
@@ -160,6 +160,62 @@
   </si>
   <si>
     <t>LEGACY_OUTBACK</t>
+  </si>
+  <si>
+    <t>LEGACY_OUTBACK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>含</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FSS_GDBB4FH</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IMPREZA_GDB</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FSS_LEVORG_VMG</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LEVORG_VMG</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>crown_sedan</t>
+  </si>
+  <si>
+    <t>FSS_crown_sedan_XS10_K</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Crown_sedan(自家用)</t>
+    <rPh sb="12" eb="14">
+      <t>ジカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FSS_jzx100_mark2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>JZX100_Mark2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>含</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -426,7 +482,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12"/>
@@ -567,7 +623,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>27</v>
@@ -581,51 +637,123 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2014</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1996</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>

--- a/citycar/citycar.xlsx
+++ b/citycar/citycar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\simutrans\simutrans-pak128.japan-ex-addons\citycar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syouj\Desktop\citycar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D7946-9339-4AAA-A122-357DF85B01A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3906484-AF54-4C62-9268-4C3FBCE59A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>addon</t>
   </si>
@@ -156,10 +156,67 @@
     <t>S207</t>
   </si>
   <si>
-    <t>FSS_LEGACY_OUTBACK</t>
-  </si>
-  <si>
     <t>LEGACY_OUTBACK</t>
+  </si>
+  <si>
+    <t>LEGACY_OUTBACK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>含</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FSS_GDBB4FH</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>IMPREZA_GDB</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FSS_LEVORG_VMG</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LEVORG_VMG</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>crown_sedan</t>
+  </si>
+  <si>
+    <t>FSS_crown_sedan_XS10_K</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Crown_sedan(自家用)</t>
+    <rPh sb="12" eb="14">
+      <t>ジカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FSS_jzx100_mark2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>JZX100_Mark2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>含</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>FSS_LEGACY_OUTBACK_BP</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -426,7 +483,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12"/>
@@ -564,13 +621,13 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3">
         <v>2006</v>
@@ -581,51 +638,123 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2014</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1996</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>130</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3"/>
